--- a/4thmathbingocard.xlsx
+++ b/4thmathbingocard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\Coding\Remote Education\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{972E04AE-4892-4B4B-85D6-9EF1E7398FD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F683073-4A4E-44B4-B89D-8AFEFD6AB330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{855DFF1D-1813-4BB9-B347-076067648953}"/>
   </bookViews>
@@ -33,27 +33,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
-  <si>
-    <t>Number Sentences</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
   <si>
     <t>Graphing</t>
   </si>
   <si>
-    <t>SplashMath</t>
-  </si>
-  <si>
-    <t>Measurement</t>
-  </si>
-  <si>
-    <t>Addition Number Sentences</t>
-  </si>
-  <si>
     <t>Kahn Math</t>
   </si>
   <si>
-    <t>Kindergarten Math Bingo Card</t>
+    <t>4th Grade Math Bingo Card</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Multiplication</t>
+  </si>
+  <si>
+    <t>Fractions</t>
+  </si>
+  <si>
+    <t>Story Problems</t>
+  </si>
+  <si>
+    <t>Story Problem</t>
   </si>
 </sst>
 </file>
@@ -177,9 +180,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -190,6 +190,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,7 +515,7 @@
   <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,104 +524,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="6"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="2:6" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
